--- a/Resultats.xlsx
+++ b/Resultats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dorian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dorian\Desktop\POLYTECH 2018-2021\S6\Graphes &amp; Application\ProjetDoublets\ProjetGraphes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{088E1B7D-066B-4A51-B248-C14A23088B33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67152085-1287-44D1-B06D-14266E5F9C27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFE6521A-6493-47A9-A887-27A78301CA8D}"/>
   </bookViews>
@@ -1114,7 +1114,7 @@
   <dimension ref="B1:BB52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1173,7 @@
         <v>30</v>
       </c>
       <c r="H2" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1">
         <v>12</v>
@@ -1199,7 +1199,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1">
         <v>78</v>
@@ -1225,7 +1225,7 @@
         <v>28</v>
       </c>
       <c r="H4" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1">
         <v>373</v>
@@ -1251,7 +1251,7 @@
         <v>22</v>
       </c>
       <c r="H5" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" s="1">
         <v>1135</v>
@@ -1277,7 +1277,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I6" s="1">
         <v>2358</v>
@@ -1303,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="H7" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I7" s="1">
         <v>3798</v>
@@ -1329,7 +1329,7 @@
         <v>17</v>
       </c>
       <c r="H8" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I8" s="1">
         <v>5146</v>
@@ -1355,7 +1355,7 @@
         <v>16</v>
       </c>
       <c r="H9" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" s="1">
         <v>5663</v>
@@ -1381,7 +1381,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="1">
         <v>4811</v>
@@ -1407,7 +1407,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11" s="1">
         <v>3359</v>
@@ -1433,7 +1433,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I12" s="1">
         <v>1951</v>
@@ -1459,7 +1459,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I13" s="1">
         <v>1028</v>
@@ -1485,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14" s="1">
         <v>462</v>
@@ -1511,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="1">
         <v>166</v>
@@ -1537,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="1">
         <v>62</v>
